--- a/data/case1/2/Plm2_13.xlsx
+++ b/data/case1/2/Plm2_13.xlsx
@@ -62,258 +62,258 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.076497189660486242</v>
+        <v>-0.093421219042667758</v>
       </c>
       <c r="B1" s="0">
-        <v>0.076452473176630065</v>
+        <v>0.093301433484285212</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.030345965193122382</v>
+        <v>-0.047190585555027198</v>
       </c>
       <c r="B2" s="0">
-        <v>0.030254686423054622</v>
+        <v>0.046854563605322141</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.12786863045042196</v>
+        <v>0.091945117157489875</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.12835079584073839</v>
+        <v>-0.092268719589640114</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.15563650202021861</v>
+        <v>-0.19172556619417236</v>
       </c>
       <c r="B4" s="0">
-        <v>0.15497467774180862</v>
+        <v>0.19074064146294845</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.14897467863701852</v>
+        <v>-0.18474064177012206</v>
       </c>
       <c r="B5" s="0">
-        <v>0.14765802683685347</v>
+        <v>0.18275838276295353</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.10935468350054212</v>
+        <v>-0.092789645854551406</v>
       </c>
       <c r="B6" s="0">
-        <v>0.10917760514312924</v>
+        <v>0.092664063850642187</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.089177606207982762</v>
+        <v>-0.072664064230878012</v>
       </c>
       <c r="B7" s="0">
-        <v>0.088731815581878593</v>
+        <v>0.07237461735154227</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.068731816658750056</v>
+        <v>-0.052374617735455153</v>
       </c>
       <c r="B8" s="0">
-        <v>0.068345906300385728</v>
+        <v>0.052159086374526709</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062345907253830823</v>
+        <v>-0.046159086702480145</v>
       </c>
       <c r="B9" s="0">
-        <v>0.062017348502293679</v>
+        <v>0.045987045013310635</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056017349470437239</v>
+        <v>-0.039987045344894057</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055974467817712537</v>
+        <v>0.039963986343224178</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.05147446877296602</v>
+        <v>-0.035463986668354153</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051397141501656307</v>
+        <v>0.035429495362915731</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.04539714247524973</v>
+        <v>-0.029429495695401986</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045150906013348369</v>
+        <v>0.029333948108865915</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.0391509070021554</v>
+        <v>-0.023333948444664188</v>
       </c>
       <c r="B13" s="0">
-        <v>0.03908417414677956</v>
+        <v>0.023312652105305531</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027084175199132865</v>
+        <v>-0.027085378964391893</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027052362290564957</v>
+        <v>0.027053102679827745</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.02105236328668969</v>
+        <v>-0.021053103017737662</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021027379581987304</v>
+        <v>0.021027691658136227</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015027380581041694</v>
+        <v>-0.015027691997196779</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004000745048707</v>
+        <v>0.015004508286680984</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090040017480337298</v>
+        <v>-0.009004508627218577</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999989665345836</v>
+        <v>0.0089999996462131193</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036106508909742985</v>
+        <v>-0.036110848248664951</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036095819191388046</v>
+        <v>0.03609674471286084</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.027095820108427038</v>
+        <v>-0.027096745028222013</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027012975610414269</v>
+        <v>0.027013822270560262</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018012976535191072</v>
+        <v>-0.018013822588724082</v>
       </c>
       <c r="B20" s="0">
-        <v>0.018004170594764446</v>
+        <v>0.018004296675531606</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090041715206190531</v>
+        <v>-0.0090042969941137585</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999990734836999</v>
+        <v>0.008999999681112314</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.12412548799181522</v>
+        <v>-0.093933796854093643</v>
       </c>
       <c r="B22" s="0">
-        <v>0.12368955909844637</v>
+        <v>0.093625193723491762</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.11468956002787856</v>
+        <v>-0.084625194043337792</v>
       </c>
       <c r="B23" s="0">
-        <v>0.11393275960688687</v>
+        <v>0.084125009307058463</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042123958465706934</v>
+        <v>-0.042125009773894107</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999998715292364</v>
+        <v>0.041999999530694332</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.032303344258401978</v>
+        <v>-0.083968737227220203</v>
       </c>
       <c r="B25" s="0">
-        <v>0.032296402165798099</v>
+        <v>0.083874181415108495</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.0262964030882884</v>
+        <v>-0.077874181734873815</v>
       </c>
       <c r="B26" s="0">
-        <v>0.026288447546551907</v>
+        <v>0.077759216553591415</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.020288448469986342</v>
+        <v>-0.07175921687483644</v>
       </c>
       <c r="B27" s="0">
-        <v>0.02026004362638556</v>
+        <v>0.071390327815415766</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.014260044553335405</v>
+        <v>-0.06539032814242951</v>
       </c>
       <c r="B28" s="0">
-        <v>0.014248797808279257</v>
+        <v>0.065156603823536052</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.0022487987963746292</v>
+        <v>-0.062520096160655569</v>
       </c>
       <c r="B29" s="0">
-        <v>0.0022460856220849479</v>
+        <v>0.062164977525215548</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>0.017753913310572411</v>
+        <v>-0.042164977918557778</v>
       </c>
       <c r="B30" s="0">
-        <v>-0.018099515625769946</v>
+        <v>0.042019471292542576</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>0.033099514611949488</v>
+        <v>-0.027019471667570016</v>
       </c>
       <c r="B31" s="0">
-        <v>-0.033244133970216083</v>
+        <v>0.027000840892164035</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.02440625930662943</v>
+        <v>-0.0060008412935435018</v>
       </c>
       <c r="B32" s="0">
-        <v>0.024373208226440291</v>
+        <v>0.0059999996629569452</v>
       </c>
     </row>
   </sheetData>
